--- a/US_Labor_Statistics.xlsx
+++ b/US_Labor_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a3f159de8c4c368/Documents/GitHub/US_Labour_Statistic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{4EC92948-E933-4281-9174-A05CF9EDA638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B12AF916-8644-4E9C-8D14-2D845EA16E42}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{4EC92948-E933-4281-9174-A05CF9EDA638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{491E1FE8-C028-4CDB-8A25-9A4DFCF3C4AD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DB438AB8-0F60-4224-9C67-97043B861F24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DB438AB8-0F60-4224-9C67-97043B861F24}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Dashboard" guid="{948164EF-B902-4A6C-8E3C-A935061C5153}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="8" showFormulaBar="0"/>
     <customWorkbookView name="ShowAllWorksheets" guid="{A1F01C08-243B-48FC-94A8-F102AEB1706D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="8" showFormulaBar="0"/>
-    <customWorkbookView name="Dashboard" guid="{948164EF-B902-4A6C-8E3C-A935061C5153}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="8" showFormulaBar="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -15778,6 +15778,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -54748,12 +54752,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A1F01C08-243B-48FC-94A8-F102AEB1706D}">
+    <customSheetView guid="{948164EF-B902-4A6C-8E3C-A935061C5153}" state="hidden">
       <selection activeCell="F150" sqref="F150"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{948164EF-B902-4A6C-8E3C-A935061C5153}" state="hidden">
+    <customSheetView guid="{A1F01C08-243B-48FC-94A8-F102AEB1706D}">
       <selection activeCell="F150" sqref="F150"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -54768,8 +54772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC326E5-0011-497D-8F5E-4B2E56443F19}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56350,7 +56354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9C6C21-9A78-4BA7-8A8B-6FC7EEC60075}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
